--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>title|标题</t>
   </si>
@@ -395,6 +395,25 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>hot</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +493,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +556,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,9 +578,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -633,6 +655,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -911,19 +945,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
     <col min="4" max="5" width="19.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
@@ -933,7 +967,7 @@
     <col min="10" max="10" width="16.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="30.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="86.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="43.75" style="13" customWidth="1"/>
+    <col min="13" max="13" width="43.75" style="12" customWidth="1"/>
     <col min="14" max="14" width="25.75" style="4" customWidth="1"/>
     <col min="15" max="15" width="14.25" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
@@ -964,7 +998,7 @@
       <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -976,7 +1010,7 @@
       <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -990,10 +1024,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1011,17 +1045,17 @@
       <c r="J2" s="3">
         <v>-1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1029,10 +1063,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1044,7 +1078,7 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="3">
@@ -1053,13 +1087,13 @@
       <c r="J3" s="3">
         <v>-1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3">
@@ -1073,23 +1107,23 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3">
         <v>9</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="3">
@@ -1098,10 +1132,10 @@
       <c r="J4" s="3">
         <v>-1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1110,7 +1144,7 @@
       <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1118,10 +1152,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1163,10 +1197,10 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1200,17 +1234,17 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1251,10 +1285,10 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1275,7 +1309,7 @@
       <c r="K8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1292,10 +1326,10 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1336,10 +1370,10 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1380,404 +1414,484 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>1611619200</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>1612195199</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+    <row r="12" spans="1:15" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>11</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>2</v>
       </c>
-      <c r="G12" s="27">
-        <v>1</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <v>1612828800</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <v>1613404799</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="27">
-        <v>1</v>
-      </c>
-      <c r="O12" s="30" t="s">
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+    <row r="13" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>12</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="27">
+      <c r="E13" s="29"/>
+      <c r="F13" s="26">
         <v>3</v>
       </c>
-      <c r="G13" s="27">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31">
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>1613404799</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="27">
-        <v>1</v>
-      </c>
-      <c r="O13" s="30" t="s">
+      <c r="N13" s="26">
+        <v>1</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>13</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="22">
+      <c r="E14" s="24"/>
+      <c r="F14" s="21">
         <v>3</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
         <v>1611014400</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>1611590399</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="22">
-        <v>1</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>14</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22">
+      <c r="E15" s="24"/>
+      <c r="F15" s="21">
         <v>3</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>0</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26">
+      <c r="H15" s="24"/>
+      <c r="I15" s="25">
         <v>1611014400</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>1611590399</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="N15" s="21">
+        <v>1</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="27">
+    <row r="16" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>15</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>3</v>
       </c>
-      <c r="G16" s="27">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
         <v>1612828800</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="30">
         <v>1613404799</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="27">
-        <v>1</v>
-      </c>
-      <c r="O16" s="30" t="s">
+      <c r="N16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="32">
+        <v>16</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1612828800</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1613404799</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="28" t="s">
+    <row r="18" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33">
-        <v>16</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31">
+      <c r="C18" s="32">
+        <v>17</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="26">
+        <v>2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="30">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J18" s="30">
         <v>1613404799</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="27">
-        <v>1</v>
-      </c>
-      <c r="O17" s="30" t="s">
+      <c r="M18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="32">
+        <v>18</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="30">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1613404799</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="26">
+        <v>1</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="33">
-        <v>17</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="C20" s="35">
+        <v>19</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33">
+        <v>1613433600</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1614009599</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="33">
+        <v>1</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="35">
+        <v>20</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33">
         <v>2</v>
       </c>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="31">
-        <v>1612828800</v>
-      </c>
-      <c r="J18" s="31">
-        <v>1613404799</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33">
+        <v>1613433600</v>
+      </c>
+      <c r="J21" s="33">
+        <v>1614009599</v>
+      </c>
+      <c r="K21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L21" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="27">
-        <v>1</v>
-      </c>
-      <c r="O18" s="30" t="s">
+      <c r="M21" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="33">
+        <v>1</v>
+      </c>
+      <c r="O21" s="36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="33">
-        <v>18</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="27">
-        <v>2</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="31">
-        <v>1612828800</v>
-      </c>
-      <c r="J19" s="31">
-        <v>1613404799</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="27">
-        <v>1</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="15"/>
-      <c r="C20" s="9"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O20"/>
@@ -1789,16 +1903,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,14 +1921,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,13 +1942,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1846,13 +1960,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>title|标题</t>
   </si>
@@ -165,216 +165,237 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>"hall_gift",10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2直通礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip3直通礼包</t>
+  </si>
+  <si>
+    <t>vip4直通礼包</t>
+  </si>
+  <si>
+    <t>vip3_buygift</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>act_023_vip2ztlb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip3ztlb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip4ztlb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_023_vip2ztlb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_023_vip3ztlb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_023_vip4ztlb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值月卡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip1直通礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip0_buygift</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_011_yueka_new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_czzk</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_011_yueka_new","panel1"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_033_vip1ztlb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_czzk","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yylb</t>
+  </si>
+  <si>
+    <t>lbdh</t>
+  </si>
+  <si>
+    <t>暖心好礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_041_yybjsj","panel_act"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢福利--cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>|活动模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_043","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_043_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_sjb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_by_hhl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年好礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多资源兑换模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_universal_dh","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_045_xxlbd","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnhl_bg_xc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>"exchange_gift",</t>
-  </si>
-  <si>
-    <t>"hall_gift",10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip2直通礼包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip3直通礼包</t>
-  </si>
-  <si>
-    <t>vip4直通礼包</t>
-  </si>
-  <si>
-    <t>vip3_buygift</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-  </si>
-  <si>
-    <t>act_023_vip2ztlb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_023_vip3ztlb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_023_vip4ztlb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_023_vip2ztlb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_023_vip3ztlb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_023_vip4ztlb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值月卡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip1直通礼包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip0_buygift</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_011_yueka_new</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_033_vip1ztlb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_czzk</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_011_yueka_new","panel1"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_033_vip1ztlb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_act_czzk","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>yylb</t>
-  </si>
-  <si>
-    <t>lbdh</t>
-  </si>
-  <si>
-    <t>暖心好礼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢一把就睡觉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_041_yybjsj","panel_act"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢福利--cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>|活动模板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_043","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_043_cjj","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_sjb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_by_hhl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺岁礼包</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用礼包1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_lb1","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年好礼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多资源兑换模板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_universal_dh","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_045_xxlbd","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,10 +914,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1024,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>-1</v>
@@ -1039,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -1069,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>-1</v>
@@ -1078,13 +1099,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1104,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -1123,13 +1144,13 @@
         <v>-1</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -1143,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>-10</v>
@@ -1167,13 +1188,13 @@
         <v>-1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -1193,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3">
         <v>-10</v>
@@ -1202,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3">
         <v>1585611000</v>
@@ -1211,13 +1232,13 @@
         <v>-1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1237,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3">
         <v>-9</v>
@@ -1252,13 +1273,13 @@
         <v>-1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1278,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3">
         <v>-10</v>
@@ -1287,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3">
         <v>1585611000</v>
@@ -1296,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -1322,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3">
         <v>-8</v>
@@ -1331,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3">
         <v>-1</v>
@@ -1340,13 +1361,13 @@
         <v>-1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -1366,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="3">
@@ -1376,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="21">
         <v>1611619200</v>
@@ -1388,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1411,10 +1432,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="27">
         <v>2</v>
@@ -1423,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="31">
         <v>1612828800</v>
@@ -1435,16 +1456,16 @@
         <v>13</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" s="27">
         <v>1</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1458,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="27">
@@ -1478,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="L13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="N13" s="27">
         <v>1</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1501,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="22">
@@ -1521,16 +1542,16 @@
         <v>13</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="22">
         <v>1</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1544,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="22">
@@ -1564,10 +1585,10 @@
         <v>13</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="22">
         <v>1</v>
@@ -1587,10 +1608,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="F16" s="27">
         <v>3</v>
@@ -1608,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="27">
         <v>1</v>
@@ -1631,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="F17" s="27">
         <v>1</v>
@@ -1652,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="27">
         <v>1</v>
@@ -1675,10 +1696,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="27">
         <v>2</v>
@@ -1687,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I18" s="31">
         <v>1612828800</v>
@@ -1699,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N18" s="27">
         <v>1</v>
@@ -1711,11 +1729,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="15"/>
-      <c r="C19" s="9"/>
-      <c r="K19" s="7"/>
-      <c r="M19" s="12"/>
+    <row r="19" spans="1:15" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="33">
+        <v>18</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="27">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1613404799</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
@@ -1733,14 +1789,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1751,16 +1809,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1772,13 +1828,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1790,13 +1846,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -1029,10 +1029,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="30">
@@ -2300,12 +2300,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2313,63 +2318,58 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -268,10 +268,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>赢一把就睡觉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_ty_by_hhl</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -471,6 +467,10 @@
   </si>
   <si>
     <t>"act_ty_task","act_xyxfl_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年狂欢夜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1029,10 +1029,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1215,13 +1215,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1506,7 +1506,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="20">
         <v>1611619200</v>
@@ -1527,10 +1527,10 @@
         <v>13</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1550,10 +1550,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="26">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="30">
         <v>1612828800</v>
@@ -1574,16 +1574,16 @@
         <v>13</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="26">
         <v>1</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="26">
@@ -1617,16 +1617,16 @@
         <v>13</v>
       </c>
       <c r="L13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="29" t="s">
-        <v>60</v>
-      </c>
       <c r="N13" s="26">
         <v>1</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1660,16 +1660,16 @@
         <v>13</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N14" s="21">
         <v>1</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1683,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="21">
@@ -1703,10 +1703,10 @@
         <v>13</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N15" s="21">
         <v>1</v>
@@ -1726,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="26">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>13</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="26">
         <v>1</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1770,10 +1770,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -1791,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" s="26">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="30">
         <v>1612828800</v>
@@ -1835,16 +1835,16 @@
         <v>13</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="26">
         <v>1</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1858,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="26">
         <v>2</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="30">
         <v>1612828800</v>
@@ -1879,10 +1879,10 @@
         <v>24</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="26">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33">
@@ -1922,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N20" s="33">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33">
@@ -1965,10 +1965,10 @@
         <v>13</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" s="33">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33">
@@ -2008,10 +2008,10 @@
         <v>13</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N22" s="33">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="37">
         <v>1</v>
@@ -2053,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N23" s="37">
         <v>1</v>
@@ -2076,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="37">
         <v>2</v>
@@ -2098,16 +2098,16 @@
         <v>13</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N24" s="37">
         <v>1</v>
       </c>
       <c r="O24" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2121,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="37">
@@ -2141,16 +2141,16 @@
         <v>13</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" s="37">
         <v>1</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2164,10 +2164,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="37">
         <v>4</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I26" s="37">
         <v>1614038400</v>
@@ -2188,16 +2188,16 @@
         <v>13</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N26" s="37">
         <v>1</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2211,10 +2211,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="F27" s="37">
         <v>4</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="37">
         <v>1614038400</v>
@@ -2235,10 +2235,10 @@
         <v>13</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="37">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37">
@@ -2278,10 +2278,10 @@
         <v>13</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N28" s="37">
         <v>1</v>
@@ -2300,6 +2300,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2307,69 +2313,63 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -1032,7 +1032,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1985,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>103</v>
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>97</v>
@@ -2073,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>93</v>
@@ -2118,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>94</v>
@@ -2161,7 +2161,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>96</v>
@@ -2208,7 +2208,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>101</v>
@@ -2255,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>90</v>
@@ -2307,12 +2307,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2320,22 +2332,10 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2345,13 +2345,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2363,13 +2363,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>title|标题</t>
   </si>
@@ -414,6 +414,47 @@
   </si>
   <si>
     <t>hot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_prize_quiz","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵福袋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+  </si>
+  <si>
+    <t>天天领金币--cjj</t>
+  </si>
+  <si>
+    <t>p_hljnh_046_hlfl_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_hljnh_046_hlfl_cjj</t>
+  </si>
+  <si>
+    <t>元宵福利</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +603,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +714,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -945,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,7 +1024,8 @@
     <col min="1" max="1" width="7.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="26" style="4" customWidth="1"/>
@@ -1423,7 +1489,9 @@
       <c r="D11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
@@ -1890,6 +1958,272 @@
         <v>1</v>
       </c>
       <c r="O21" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="39">
+        <v>21</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="37">
+        <v>1</v>
+      </c>
+      <c r="G22" s="37">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="37">
+        <v>1</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="37">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="39">
+        <v>22</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="37">
+        <v>2</v>
+      </c>
+      <c r="G23" s="37">
+        <v>1</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J23" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="37">
+        <v>1</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="39">
+        <v>23</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="37">
+        <v>2</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J24" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="37">
+        <v>1</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="37">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="39">
+        <v>24</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="37">
+        <v>3</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J25" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="37">
+        <v>1</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="39">
+        <v>25</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="37">
+        <v>3</v>
+      </c>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J26" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="37">
+        <v>1</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="37">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="39">
+        <v>26</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37">
+        <v>5</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J27" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="37">
+        <v>1</v>
+      </c>
+      <c r="O27" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1903,37 +2237,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1941,38 +2257,56 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -1016,7 +1016,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2107,16 +2107,15 @@
       <c r="D25" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>102</v>
-      </c>
       <c r="F25" s="37">
         <v>3</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="40"/>
+      <c r="H25" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="I25" s="37">
         <v>1614038400</v>
       </c>
@@ -2152,16 +2151,15 @@
       <c r="D26" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>103</v>
-      </c>
       <c r="F26" s="37">
         <v>3</v>
       </c>
       <c r="G26" s="37">
         <v>1</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="I26" s="37">
         <v>1614038400</v>
       </c>
@@ -2237,19 +2235,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2257,56 +2246,65 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -447,15 +447,14 @@
     <t>天天领金币--cjj</t>
   </si>
   <si>
-    <t>p_hljnh_046_hlfl_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_hljnh_046_hlfl_cjj</t>
-  </si>
-  <si>
     <t>元宵福利</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1015,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1027,7 @@
     <col min="5" max="5" width="18.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="30.875" style="1" customWidth="1"/>
@@ -1972,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>96</v>
@@ -2066,7 +2065,7 @@
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
@@ -2108,13 +2107,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I25" s="37">
         <v>1614038400</v>
@@ -2152,13 +2151,13 @@
         <v>101</v>
       </c>
       <c r="F26" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="37">
         <v>1</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I26" s="37">
         <v>1614038400</v>
@@ -2235,15 +2234,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2253,17 +2254,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,13 +2273,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2292,13 +2291,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>title|标题</t>
   </si>
@@ -444,9 +444,6 @@
     <t>天天领金币</t>
   </si>
   <si>
-    <t>天天领金币--cjj</t>
-  </si>
-  <si>
     <t>元宵福利</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -455,6 +452,18 @@
   </si>
   <si>
     <t>actp_buy_gift_class_hqjnh_046_cjj_hllb</t>
+  </si>
+  <si>
+    <t>捕鱼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,7 +1024,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1971,7 +1980,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>96</v>
@@ -2106,6 +2115,9 @@
       <c r="D25" s="40" t="s">
         <v>100</v>
       </c>
+      <c r="E25" s="37" t="s">
+        <v>104</v>
+      </c>
       <c r="F25" s="37">
         <v>4</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" s="37">
         <v>1614038400</v>
@@ -2148,7 +2160,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="F26" s="37">
         <v>4</v>
@@ -2157,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I26" s="37">
         <v>1614038400</v>
@@ -2234,17 +2249,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2254,15 +2267,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,13 +2288,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2291,13 +2306,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>title|标题</t>
   </si>
@@ -463,6 +463,14 @@
   </si>
   <si>
     <t>cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_044","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","act_khfl_044_cjj","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1021,10 +1029,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2140,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="N25" s="37">
         <v>1</v>
@@ -2187,7 +2195,7 @@
         <v>58</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N26" s="37">
         <v>1</v>
@@ -2249,10 +2257,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2260,65 +2264,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>title|标题</t>
   </si>
@@ -406,10 +406,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"act_ty_by_hhl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
@@ -471,6 +467,18 @@
   </si>
   <si>
     <t>"GameComAct1","act_khfl_044_cjj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Act_049_XYHL","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ycs_cssl","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1026,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1316,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1506,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1756,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1844,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1925,7 +1933,7 @@
         <v>58</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="N20" s="33">
         <v>1</v>
@@ -1977,52 +1985,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="37">
+    <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="39">
-        <v>21</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="37">
-        <v>1</v>
-      </c>
-      <c r="G22" s="37">
-        <v>1</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="37">
-        <v>1614038400</v>
-      </c>
-      <c r="J22" s="37">
-        <v>1614614399</v>
-      </c>
-      <c r="K22" s="40" t="s">
+      <c r="C22" s="35">
+        <v>20</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33">
+        <v>1613433600</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1614009599</v>
+      </c>
+      <c r="K22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="37">
-        <v>1</v>
-      </c>
-      <c r="O22" s="40" t="s">
+      <c r="M22" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="33">
+        <v>1</v>
+      </c>
+      <c r="O22" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -2030,21 +2036,21 @@
         <v>21</v>
       </c>
       <c r="C23" s="39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F23" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="41"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="37">
         <v>1614038400</v>
       </c>
@@ -2055,16 +2061,16 @@
         <v>13</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N23" s="37">
         <v>1</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2075,14 +2081,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="40"/>
+        <v>96</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="F24" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
@@ -2101,7 +2109,7 @@
         <v>59</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="N24" s="37">
         <v>1</v>
@@ -2110,7 +2118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -2118,23 +2126,19 @@
         <v>21</v>
       </c>
       <c r="C25" s="39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E25" s="40"/>
       <c r="F25" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="42" t="s">
-        <v>102</v>
-      </c>
+      <c r="H25" s="41"/>
       <c r="I25" s="37">
         <v>1614038400</v>
       </c>
@@ -2148,13 +2152,13 @@
         <v>59</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N25" s="37">
         <v>1</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2165,13 +2169,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26" s="37">
         <v>4</v>
@@ -2180,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I26" s="37">
         <v>1614038400</v>
@@ -2192,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N26" s="37">
         <v>1</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -2212,19 +2216,23 @@
         <v>21</v>
       </c>
       <c r="C27" s="39">
-        <v>26</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>105</v>
+      </c>
       <c r="F27" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="37">
         <v>1</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="I27" s="37">
         <v>1614038400</v>
       </c>
@@ -2238,12 +2246,55 @@
         <v>58</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N27" s="37">
         <v>1</v>
       </c>
       <c r="O27" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="39">
+        <v>26</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37">
+        <v>5</v>
+      </c>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="37">
+        <v>1614614399</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="37">
+        <v>1</v>
+      </c>
+      <c r="O28" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2257,15 +2308,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2276,17 +2329,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2296,13 +2347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2314,13 +2365,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -308,14 +308,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"GameComAct1","act_khfl_043","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_043_cjj","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_ty_sjb","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -479,6 +471,14 @@
   </si>
   <si>
     <t>"act_ycs_cssl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_xyxfl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_xyxfl_cjj","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1040,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,13 +1223,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1514,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>58</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1558,10 +1558,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="26">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="30">
         <v>1612828800</v>
@@ -1585,7 +1585,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N12" s="26">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>59</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="N14" s="21">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>58</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="N15" s="21">
         <v>1</v>
@@ -1734,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="26">
         <v>3</v>
@@ -1758,13 +1758,13 @@
         <v>58</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N16" s="26">
         <v>1</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1778,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>58</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N17" s="26">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="30">
         <v>1612828800</v>
@@ -1846,13 +1846,13 @@
         <v>58</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N18" s="26">
         <v>1</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1866,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="26">
         <v>2</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="30">
         <v>1612828800</v>
@@ -1887,10 +1887,10 @@
         <v>24</v>
       </c>
       <c r="L19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="N19" s="26">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33">
@@ -1933,7 +1933,7 @@
         <v>58</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N20" s="33">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33">
@@ -1976,7 +1976,7 @@
         <v>58</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N21" s="33">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33">
@@ -2019,7 +2019,7 @@
         <v>58</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N22" s="33">
         <v>1</v>
@@ -2039,10 +2039,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="37">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>58</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N23" s="37">
         <v>1</v>
@@ -2084,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="37">
         <v>2</v>
@@ -2109,7 +2109,7 @@
         <v>59</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N24" s="37">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="37">
@@ -2152,7 +2152,7 @@
         <v>59</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N25" s="37">
         <v>1</v>
@@ -2172,10 +2172,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="37">
         <v>4</v>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="37">
         <v>1614038400</v>
@@ -2199,7 +2199,7 @@
         <v>59</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N26" s="37">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="37">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I27" s="37">
         <v>1614038400</v>
@@ -2246,7 +2246,7 @@
         <v>58</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N27" s="37">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37">
@@ -2289,7 +2289,7 @@
         <v>58</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N28" s="37">
         <v>1</v>
@@ -2308,10 +2308,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2322,14 +2322,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2341,13 +2343,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2359,13 +2359,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2377,7 +2377,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>title|标题</t>
   </si>
@@ -451,14 +451,6 @@
   </si>
   <si>
     <t>cjj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_044","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","act_khfl_044_cjj","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1040,7 +1032,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1671,7 +1663,7 @@
         <v>59</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N14" s="21">
         <v>1</v>
@@ -1714,7 +1706,7 @@
         <v>58</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N15" s="21">
         <v>1</v>
@@ -1933,7 +1925,7 @@
         <v>58</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N20" s="33">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33">
@@ -2019,7 +2011,7 @@
         <v>58</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N22" s="33">
         <v>1</v>
@@ -2199,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N26" s="37">
         <v>1</v>
@@ -2246,7 +2238,7 @@
         <v>58</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N27" s="37">
         <v>1</v>
@@ -2308,17 +2300,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2329,17 +2321,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2347,13 +2339,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2365,13 +2357,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_2.9/game_activity_config.xlsx
+++ b/config_2.9/game_activity_config.xlsx
@@ -1029,10 +1029,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1601,10 +1601,10 @@
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="30">
@@ -2300,14 +2300,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2319,16 +2321,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2339,13 +2339,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2357,13 +2357,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
